--- a/medicine/Pharmacie/Ataluren/Ataluren.xlsx
+++ b/medicine/Pharmacie/Ataluren/Ataluren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ataluren, aussi connu sous le nom de code PTC124, est le principe actif d'un médicament conçu par l'entreprise pharmaceutique PTC Therapeutics (en) et vendu sous la marque Translarna.
-Il a été autorisé en 2014 dans la dystrophie musculaire de Duchenne pour les patients atteints de mutation non-sens. Mais en 2024, l'agence européenne des médicaments s'est prononcée contre le renouvellement de cette AMM[2],[3].
-Il a été en essai clinique dans le traitement de la mucoviscidose, mais son utilisation s'est révélée inefficace[4].
+Il a été autorisé en 2014 dans la dystrophie musculaire de Duchenne pour les patients atteints de mutation non-sens. Mais en 2024, l'agence européenne des médicaments s'est prononcée contre le renouvellement de cette AMM,.
+Il a été en essai clinique dans le traitement de la mucoviscidose, mais son utilisation s'est révélée inefficace.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ataluren est une molécule de petite masse moléculaire, l'acide 3-[5-(2-fluorophényl)-1,2,4-oxadiazol-3-yl]benzoïque.
 </t>
@@ -545,10 +559,12 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ataluren permet au système ribosomique de traduction de l'ARNm en protéine de passer outre aux signaux de terminaison illicites liés à des mutations non-sens[5],[6]. Une mutation non-sens est une substitution ponctuelle de base dans l’ADN qui remplace un codon spécifiant un acide aminé par un codon d’arrêt. Cette mutation dans l'ADN aboutit à la transcription d’un ARNm portant lui aussi, à la place d’un codon spécifiant normalement cet acide aminé, un codon stop qui, à son tour, spécifie la fin de la traduction génétique et le relargage d'un peptide incomplet.
-Il y a cependant un débat en cours sur la question : l'ataluren est-il réellement vraiment une molécule fonctionnelle (en "shuntant" un codon non sens), ou, s'il ne fonctionne pas, le résultat est-il un faux positif issu de la luciférase utilisée[7] ?
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ataluren permet au système ribosomique de traduction de l'ARNm en protéine de passer outre aux signaux de terminaison illicites liés à des mutations non-sens,. Une mutation non-sens est une substitution ponctuelle de base dans l’ADN qui remplace un codon spécifiant un acide aminé par un codon d’arrêt. Cette mutation dans l'ADN aboutit à la transcription d’un ARNm portant lui aussi, à la place d’un codon spécifiant normalement cet acide aminé, un codon stop qui, à son tour, spécifie la fin de la traduction génétique et le relargage d'un peptide incomplet.
+Il y a cependant un débat en cours sur la question : l'ataluren est-il réellement vraiment une molécule fonctionnelle (en "shuntant" un codon non sens), ou, s'il ne fonctionne pas, le résultat est-il un faux positif issu de la luciférase utilisée ?
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les formes de myopathie de Duchenne avec mutation non-sens, la molécule augmenterait l'expression de la dystrophine[8]. Au niveau fonctionnel, il améliorerait le test de marche de six minutes[9], mais uniquement s'il est compris entre 300 et 400 m[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les formes de myopathie de Duchenne avec mutation non-sens, la molécule augmenterait l'expression de la dystrophine. Au niveau fonctionnel, il améliorerait le test de marche de six minutes, mais uniquement s'il est compris entre 300 et 400 m.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Autorisation de mise sur le marché</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 23 mai 2014, le Comité européen des médicaments à usage humain de l’Agence européenne des médicaments (AEM) accorde une autorisation d’utilisation à l’ataluren dans la myopathie de Duchenne[11]. En 2024, l'AEM s'est prononcée contre le renouvellement de cette AMM[2],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 23 mai 2014, le Comité européen des médicaments à usage humain de l’Agence européenne des médicaments (AEM) accorde une autorisation d’utilisation à l’ataluren dans la myopathie de Duchenne. En 2024, l'AEM s'est prononcée contre le renouvellement de cette AMM,.
 </t>
         </is>
       </c>
